--- a/08. excel regresi linear.xlsx
+++ b/08. excel regresi linear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materi Kuliah\Semester 4\Metode Numerik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721A197-FC7A-43F8-8182-0AFD21D524D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF039B-E220-484A-B1C0-A69302373012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A41BDF3-FA72-42CA-A766-B4A09B99797E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Januari</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Dari tabel diatas dapat ditentukan:</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Oktober</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>Σy</t>
@@ -530,16 +524,25 @@
     <t xml:space="preserve">a = </t>
   </si>
   <si>
-    <t>x rata-rata cari simbol</t>
-  </si>
-  <si>
-    <t>ȳ -bX</t>
-  </si>
-  <si>
     <t>Sehingga persamaan garisnya :</t>
   </si>
   <si>
-    <t>y = -12,3089 - 0,389106675x</t>
+    <t>x̄</t>
+  </si>
+  <si>
+    <t>ȳ</t>
+  </si>
+  <si>
+    <t>ȳ -bx</t>
+  </si>
+  <si>
+    <t>y = a + bx</t>
+  </si>
+  <si>
+    <t>Jadi, b = 0,389106675 dan a = 31,82148</t>
+  </si>
+  <si>
+    <t>y = 31,82148 + 0,389106675x</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -664,7 +667,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E61CB42-9F4D-4F62-BD19-C06840DFB0F1}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1427,7 +1441,7 @@
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>130.19999999999999</v>
@@ -1463,7 +1477,7 @@
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>126.9</v>
@@ -1499,7 +1513,7 @@
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>142.5</v>
@@ -1534,24 +1548,24 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F15" s="4"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="K15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="L15" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1581,128 +1595,156 @@
         <v>130.76060905198912</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E23" s="2" t="s">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="6">
+        <f>G16 /"12"</f>
+        <v>123.72500000000001</v>
+      </c>
+      <c r="I23" s="6">
+        <f>H23/H24</f>
+        <v>10.310416666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6">
+        <v>12</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="2">
-        <f>G16</f>
-        <v>1484.7</v>
-      </c>
-      <c r="I23" s="2">
-        <f>H23/H24</f>
-        <v>123.72500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="G24" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <f>H16</f>
         <v>430</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="6">
         <f>H27/H28</f>
         <v>35.833333333333336</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.35">
       <c r="G28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="2">
+        <v>25</v>
+      </c>
+      <c r="H28" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F32" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F32" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="K33" s="7">
         <f>12*I16 - (G16*H16)</f>
         <v>43835.399999999907</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="7">
         <f>K33/K34</f>
         <v>0.38910667479402489</v>
       </c>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="K34" s="7">
         <f>12*J16 - (G16)^2</f>
         <v>112656.51000000024</v>
       </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H36" s="2">
         <f>I27-L33*I23</f>
-        <v>-12.308890005557394</v>
-      </c>
+        <v>31.821481388425774</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F39" s="2" t="s">
-        <v>46</v>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F42" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
